--- a/biology/Médecine/Hôpital_Mont_Sinaï_(New_York)/Hôpital_Mont_Sinaï_(New_York).xlsx
+++ b/biology/Médecine/Hôpital_Mont_Sinaï_(New_York)/Hôpital_Mont_Sinaï_(New_York).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Mont_Sina%C3%AF_(New_York)</t>
+          <t>Hôpital_Mont_Sinaï_(New_York)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'hôpital Mont Sinaï[1],[2],[3] est un hôpital situé à New York, qui dessert l'Upper East Side de l'arrondissement de Manhattan et le quartier de Harlem. Fondé en 1852, le Mont Sinaï est l'un des plus anciens et des plus grands hôpitaux à vocation pédagogique des États-Unis.
+L'hôpital Mont Sinaï est un hôpital situé à New York, qui dessert l'Upper East Side de l'arrondissement de Manhattan et le quartier de Harlem. Fondé en 1852, le Mont Sinaï est l'un des plus anciens et des plus grands hôpitaux à vocation pédagogique des États-Unis.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Mont_Sina%C3%AF_(New_York)</t>
+          <t>Hôpital_Mont_Sinaï_(New_York)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il compte 1 171 lits et a un personnel médical atteignant presque 1 800 membres.
 L'hôpital est également affilié à un important centre d'enseignement médical, la Mount Sinai School of Medicine, fondée en 1976.
-Le U.S. News &amp; World Report’s Honor Roll de 2009 le met au 19e rang des meilleurs hôpitaux des États-Unis[4].
+Le U.S. News &amp; World Report’s Honor Roll de 2009 le met au 19e rang des meilleurs hôpitaux des États-Unis.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Mont_Sina%C3%AF_(New_York)</t>
+          <t>Hôpital_Mont_Sinaï_(New_York)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Médecins célèbres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les médecins ayant travaillé à cet hôpital, on compte Burrill Bernard Crohn, qui a donné son nom à la maladie de Crohn.
 </t>
